--- a/processedFiles/dataTotalsmodel3.xlsx
+++ b/processedFiles/dataTotalsmodel3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataTotalsmodel3.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>File</t>
   </si>
@@ -244,6 +244,72 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Ereg</t>
+  </si>
+  <si>
+    <t>Ereg^2</t>
+  </si>
+  <si>
+    <t>Ereg^3</t>
+  </si>
+  <si>
+    <t>Ep1</t>
+  </si>
+  <si>
+    <t>Ep1^2</t>
+  </si>
+  <si>
+    <t>Ep1^3</t>
+  </si>
+  <si>
+    <t>Ep2</t>
+  </si>
+  <si>
+    <t>Ep2^2</t>
+  </si>
+  <si>
+    <t>Ep2^3</t>
+  </si>
+  <si>
+    <t>Enp</t>
+  </si>
+  <si>
+    <t>Enp^2</t>
+  </si>
+  <si>
+    <t>Enp^3</t>
+  </si>
+  <si>
+    <t>Epsi</t>
+  </si>
+  <si>
+    <t>Epsi^2</t>
+  </si>
+  <si>
+    <t>Epsi^3</t>
+  </si>
+  <si>
+    <t>Ephi</t>
+  </si>
+  <si>
+    <t>Ephi^2</t>
+  </si>
+  <si>
+    <t>Ephi^3</t>
+  </si>
+  <si>
+    <t>Esa</t>
+  </si>
+  <si>
+    <t>Esa^2</t>
+  </si>
+  <si>
+    <t>Esa^3</t>
+  </si>
+  <si>
+    <t>Best Z Score</t>
   </si>
 </sst>
 </file>
@@ -292,17 +358,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,15 +775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +835,71 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -745,8 +951,71 @@
       <c r="Q2">
         <v>0.61384545454499995</v>
       </c>
+      <c r="R2">
+        <v>3.6708984400000002</v>
+      </c>
+      <c r="S2">
+        <v>0.2265625</v>
+      </c>
+      <c r="T2">
+        <v>0.41210938000000003</v>
+      </c>
+      <c r="U2">
+        <v>3.9638671900000002</v>
+      </c>
+      <c r="V2">
+        <v>0.31933593999999998</v>
+      </c>
+      <c r="W2">
+        <v>1.05859375</v>
+      </c>
+      <c r="X2">
+        <v>3.2294921900000002</v>
+      </c>
+      <c r="Y2">
+        <v>3.7685546900000002</v>
+      </c>
+      <c r="Z2">
+        <v>0.11621094</v>
+      </c>
+      <c r="AA2">
+        <v>3.29296875</v>
+      </c>
+      <c r="AB2">
+        <v>1.77246094</v>
+      </c>
+      <c r="AC2">
+        <v>2.55273438</v>
+      </c>
+      <c r="AD2">
+        <v>3.9306640599999998</v>
+      </c>
+      <c r="AE2">
+        <v>3.5458984400000002</v>
+      </c>
+      <c r="AF2">
+        <v>3.77539062</v>
+      </c>
+      <c r="AG2">
+        <v>1.21289062</v>
+      </c>
+      <c r="AH2">
+        <v>0.46289061999999997</v>
+      </c>
+      <c r="AI2">
+        <v>0.3671875</v>
+      </c>
+      <c r="AJ2">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AK2">
+        <v>0.71191406000000002</v>
+      </c>
+      <c r="AL2">
+        <v>1.7578119999999999E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -798,8 +1067,71 @@
       <c r="Q3">
         <v>0.61384545454499995</v>
       </c>
+      <c r="R3" s="1">
+        <v>0.126953125</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3.6279296900000002</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.67675781</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.83300781199999996</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3.24804688</v>
+      </c>
+      <c r="W3" s="1">
+        <v>3.6201171900000002</v>
+      </c>
+      <c r="X3" s="1">
+        <v>3.8583984400000002</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>2.3544921900000002</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1.52929688</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>3.74804688</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.27832031200000001</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.64355468800000004</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2.8203125</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.810546875</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3.6376953099999998</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1.95507812</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>3.3232421900000002</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>8.7890625E-2</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0.69433593800000004</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1.953125E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -851,8 +1183,71 @@
       <c r="Q4">
         <v>0.61389363636399996</v>
       </c>
+      <c r="R4">
+        <v>2.2451171900000002</v>
+      </c>
+      <c r="S4">
+        <v>1.07910156</v>
+      </c>
+      <c r="T4">
+        <v>2.49414062</v>
+      </c>
+      <c r="U4">
+        <v>0.86914062000000003</v>
+      </c>
+      <c r="V4">
+        <v>1.93164062</v>
+      </c>
+      <c r="W4">
+        <v>2.6513671900000002</v>
+      </c>
+      <c r="X4">
+        <v>0.46972656000000002</v>
+      </c>
+      <c r="Y4">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="Z4">
+        <v>0.75878906000000002</v>
+      </c>
+      <c r="AA4">
+        <v>0.81835937999999997</v>
+      </c>
+      <c r="AB4">
+        <v>3.3056640599999998</v>
+      </c>
+      <c r="AC4">
+        <v>2.77929688</v>
+      </c>
+      <c r="AD4">
+        <v>2.14453125</v>
+      </c>
+      <c r="AE4">
+        <v>0.79882812000000003</v>
+      </c>
+      <c r="AF4">
+        <v>2.9033203099999998</v>
+      </c>
+      <c r="AG4">
+        <v>2.40039062</v>
+      </c>
+      <c r="AH4">
+        <v>3.21484375</v>
+      </c>
+      <c r="AI4">
+        <v>0.35644531000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>5.7617189999999999E-2</v>
+      </c>
+      <c r="AK4">
+        <v>1.03027344</v>
+      </c>
+      <c r="AL4">
+        <v>1.171875E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -904,8 +1299,71 @@
       <c r="Q5">
         <v>0.61427454545500004</v>
       </c>
+      <c r="R5">
+        <v>2.43554688</v>
+      </c>
+      <c r="S5">
+        <v>2.0595703099999998</v>
+      </c>
+      <c r="T5">
+        <v>1.08105469</v>
+      </c>
+      <c r="U5">
+        <v>0.38867188000000003</v>
+      </c>
+      <c r="V5">
+        <v>2.84765625</v>
+      </c>
+      <c r="W5">
+        <v>0.46386718999999998</v>
+      </c>
+      <c r="X5">
+        <v>3.0146484400000002</v>
+      </c>
+      <c r="Y5">
+        <v>0.45410156000000002</v>
+      </c>
+      <c r="Z5">
+        <v>1.37792969</v>
+      </c>
+      <c r="AA5">
+        <v>1.90429688</v>
+      </c>
+      <c r="AB5">
+        <v>2.2724609400000002</v>
+      </c>
+      <c r="AC5">
+        <v>2.2294921900000002</v>
+      </c>
+      <c r="AD5">
+        <v>1.58398438</v>
+      </c>
+      <c r="AE5">
+        <v>0.90234375</v>
+      </c>
+      <c r="AF5">
+        <v>3.66992188</v>
+      </c>
+      <c r="AG5">
+        <v>2.4853515599999998</v>
+      </c>
+      <c r="AH5">
+        <v>3.5966796900000002</v>
+      </c>
+      <c r="AI5">
+        <v>1.79101562</v>
+      </c>
+      <c r="AJ5">
+        <v>4.1015620000000003E-2</v>
+      </c>
+      <c r="AK5">
+        <v>1.40234375</v>
+      </c>
+      <c r="AL5">
+        <v>1.074219E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -957,8 +1415,71 @@
       <c r="Q6">
         <v>0.61213727272700003</v>
       </c>
+      <c r="R6">
+        <v>1.50195312</v>
+      </c>
+      <c r="S6">
+        <v>0.57714843999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.21875</v>
+      </c>
+      <c r="U6">
+        <v>2.7978515599999998</v>
+      </c>
+      <c r="V6">
+        <v>1.99707031</v>
+      </c>
+      <c r="W6">
+        <v>0.29003906000000002</v>
+      </c>
+      <c r="X6">
+        <v>2.1416015599999998</v>
+      </c>
+      <c r="Y6">
+        <v>2.0302734400000002</v>
+      </c>
+      <c r="Z6">
+        <v>1.89453125</v>
+      </c>
+      <c r="AA6">
+        <v>1.95410156</v>
+      </c>
+      <c r="AB6">
+        <v>1.60546875</v>
+      </c>
+      <c r="AC6">
+        <v>3.41601562</v>
+      </c>
+      <c r="AD6">
+        <v>1.98925781</v>
+      </c>
+      <c r="AE6">
+        <v>2.5009765599999998</v>
+      </c>
+      <c r="AF6">
+        <v>2.5029296900000002</v>
+      </c>
+      <c r="AG6">
+        <v>0.33691406000000002</v>
+      </c>
+      <c r="AH6">
+        <v>3.5615234400000002</v>
+      </c>
+      <c r="AI6">
+        <v>1.07910156</v>
+      </c>
+      <c r="AJ6">
+        <v>0.16113280999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.97949218999999998</v>
+      </c>
+      <c r="AL6">
+        <v>8.7890599999999996E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1010,8 +1531,71 @@
       <c r="Q7">
         <v>0.61219000000000001</v>
       </c>
+      <c r="R7">
+        <v>2.7744140599999998</v>
+      </c>
+      <c r="S7">
+        <v>2.7607421900000002</v>
+      </c>
+      <c r="T7">
+        <v>2.19335938</v>
+      </c>
+      <c r="U7">
+        <v>0.71289062000000003</v>
+      </c>
+      <c r="V7">
+        <v>1.03417969</v>
+      </c>
+      <c r="W7">
+        <v>0.19042969000000001</v>
+      </c>
+      <c r="X7">
+        <v>3.0244140599999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.81054687999999997</v>
+      </c>
+      <c r="Z7">
+        <v>2.7451171900000002</v>
+      </c>
+      <c r="AA7">
+        <v>0.66503906000000002</v>
+      </c>
+      <c r="AB7">
+        <v>2.0517578099999998</v>
+      </c>
+      <c r="AC7">
+        <v>1.00195312</v>
+      </c>
+      <c r="AD7">
+        <v>6.5429689999999999E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.31835938</v>
+      </c>
+      <c r="AF7">
+        <v>2.4111328099999998</v>
+      </c>
+      <c r="AG7">
+        <v>3.7802734400000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.40234375</v>
+      </c>
+      <c r="AI7">
+        <v>1.41796875</v>
+      </c>
+      <c r="AJ7">
+        <v>9.7656199999999992E-3</v>
+      </c>
+      <c r="AK7">
+        <v>0.67675781000000002</v>
+      </c>
+      <c r="AL7">
+        <v>1.269531E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1063,8 +1647,71 @@
       <c r="Q8">
         <v>0.60932545454499998</v>
       </c>
+      <c r="R8">
+        <v>2.72851562</v>
+      </c>
+      <c r="S8">
+        <v>1.90332031</v>
+      </c>
+      <c r="T8">
+        <v>1.53320312</v>
+      </c>
+      <c r="U8">
+        <v>3.3154296900000002</v>
+      </c>
+      <c r="V8">
+        <v>3.8251953099999998</v>
+      </c>
+      <c r="W8">
+        <v>1.79003906</v>
+      </c>
+      <c r="X8">
+        <v>1.44042969</v>
+      </c>
+      <c r="Y8">
+        <v>0.73339843999999998</v>
+      </c>
+      <c r="Z8">
+        <v>3.27929688</v>
+      </c>
+      <c r="AA8">
+        <v>1.83105469</v>
+      </c>
+      <c r="AB8">
+        <v>1.25</v>
+      </c>
+      <c r="AC8">
+        <v>0.23925780999999999</v>
+      </c>
+      <c r="AD8">
+        <v>3.8154296900000002</v>
+      </c>
+      <c r="AE8">
+        <v>2.0966796900000002</v>
+      </c>
+      <c r="AF8">
+        <v>3.43359375</v>
+      </c>
+      <c r="AG8">
+        <v>3.2314453099999998</v>
+      </c>
+      <c r="AH8">
+        <v>1.22558594</v>
+      </c>
+      <c r="AI8">
+        <v>1.42578125</v>
+      </c>
+      <c r="AJ8">
+        <v>0.36230468999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.83007812000000003</v>
+      </c>
+      <c r="AL8">
+        <v>1.953125E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1116,8 +1763,71 @@
       <c r="Q9">
         <v>0.61380181818199997</v>
       </c>
+      <c r="R9">
+        <v>1.60253906</v>
+      </c>
+      <c r="S9">
+        <v>2.53125</v>
+      </c>
+      <c r="T9">
+        <v>3.9619140599999998</v>
+      </c>
+      <c r="U9">
+        <v>0.81347656000000002</v>
+      </c>
+      <c r="V9">
+        <v>3.7021484400000002</v>
+      </c>
+      <c r="W9">
+        <v>1.58203125</v>
+      </c>
+      <c r="X9">
+        <v>2.734375</v>
+      </c>
+      <c r="Y9">
+        <v>1.68066406</v>
+      </c>
+      <c r="Z9">
+        <v>1.23828125</v>
+      </c>
+      <c r="AA9">
+        <v>3.3642578099999998</v>
+      </c>
+      <c r="AB9">
+        <v>3.4169921900000002</v>
+      </c>
+      <c r="AC9">
+        <v>2.77734375</v>
+      </c>
+      <c r="AD9">
+        <v>1.29101562</v>
+      </c>
+      <c r="AE9">
+        <v>3.8076171900000002</v>
+      </c>
+      <c r="AF9">
+        <v>3.6337890599999998</v>
+      </c>
+      <c r="AG9">
+        <v>2.1318359400000002</v>
+      </c>
+      <c r="AH9">
+        <v>0.57128906000000002</v>
+      </c>
+      <c r="AI9">
+        <v>0.76074218999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>6.5429689999999999E-2</v>
+      </c>
+      <c r="AK9">
+        <v>0.62207031000000002</v>
+      </c>
+      <c r="AL9">
+        <v>9.7656199999999992E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1169,8 +1879,71 @@
       <c r="Q10">
         <v>0.61518909090899998</v>
       </c>
+      <c r="R10">
+        <v>0.18945312</v>
+      </c>
+      <c r="S10">
+        <v>2.6787109400000002</v>
+      </c>
+      <c r="T10">
+        <v>1.09277344</v>
+      </c>
+      <c r="U10">
+        <v>1.44628906</v>
+      </c>
+      <c r="V10">
+        <v>3.2255859400000002</v>
+      </c>
+      <c r="W10">
+        <v>0.76171875</v>
+      </c>
+      <c r="X10">
+        <v>1.83984375</v>
+      </c>
+      <c r="Y10">
+        <v>0.83984375</v>
+      </c>
+      <c r="Z10">
+        <v>0.54492187999999997</v>
+      </c>
+      <c r="AA10">
+        <v>0.22460938</v>
+      </c>
+      <c r="AB10">
+        <v>2.45703125</v>
+      </c>
+      <c r="AC10">
+        <v>1.2109375</v>
+      </c>
+      <c r="AD10">
+        <v>2.5712890599999998</v>
+      </c>
+      <c r="AE10">
+        <v>2.2431640599999998</v>
+      </c>
+      <c r="AF10">
+        <v>3.4990234400000002</v>
+      </c>
+      <c r="AG10">
+        <v>7.421875E-2</v>
+      </c>
+      <c r="AH10">
+        <v>1.41113281</v>
+      </c>
+      <c r="AI10">
+        <v>2.5859375</v>
+      </c>
+      <c r="AJ10">
+        <v>0.10449219</v>
+      </c>
+      <c r="AK10">
+        <v>1.42480469</v>
+      </c>
+      <c r="AL10">
+        <v>1.171875E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1222,8 +1995,71 @@
       <c r="Q11">
         <v>0.61245909090899997</v>
       </c>
+      <c r="R11">
+        <v>1.63574219</v>
+      </c>
+      <c r="S11">
+        <v>0.25488281000000002</v>
+      </c>
+      <c r="T11">
+        <v>1.33105469</v>
+      </c>
+      <c r="U11">
+        <v>3.8779296900000002</v>
+      </c>
+      <c r="V11">
+        <v>2.01367188</v>
+      </c>
+      <c r="W11">
+        <v>0.87109375</v>
+      </c>
+      <c r="X11">
+        <v>0.91503906000000002</v>
+      </c>
+      <c r="Y11">
+        <v>3.3828125</v>
+      </c>
+      <c r="Z11">
+        <v>2.4921875</v>
+      </c>
+      <c r="AA11">
+        <v>3.9052734400000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.12695312</v>
+      </c>
+      <c r="AC11">
+        <v>3.7041015599999998</v>
+      </c>
+      <c r="AD11">
+        <v>1.55566406</v>
+      </c>
+      <c r="AE11">
+        <v>0.5625</v>
+      </c>
+      <c r="AF11">
+        <v>2.453125</v>
+      </c>
+      <c r="AG11">
+        <v>3.32617188</v>
+      </c>
+      <c r="AH11">
+        <v>3.8125</v>
+      </c>
+      <c r="AI11">
+        <v>3.13476562</v>
+      </c>
+      <c r="AJ11">
+        <v>3.8085939999999999E-2</v>
+      </c>
+      <c r="AK11">
+        <v>0.68164062000000003</v>
+      </c>
+      <c r="AL11">
+        <v>9.7656199999999992E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1275,8 +2111,71 @@
       <c r="Q12">
         <v>0.609234545455</v>
       </c>
+      <c r="R12">
+        <v>3.125</v>
+      </c>
+      <c r="S12">
+        <v>1.82226562</v>
+      </c>
+      <c r="T12">
+        <v>3.93164062</v>
+      </c>
+      <c r="U12">
+        <v>1.9765625</v>
+      </c>
+      <c r="V12">
+        <v>3.51171875</v>
+      </c>
+      <c r="W12">
+        <v>3.5615234400000002</v>
+      </c>
+      <c r="X12">
+        <v>1.15820312</v>
+      </c>
+      <c r="Y12">
+        <v>3.39453125</v>
+      </c>
+      <c r="Z12">
+        <v>3.78710938</v>
+      </c>
+      <c r="AA12">
+        <v>3.72070312</v>
+      </c>
+      <c r="AB12">
+        <v>2.2333984400000002</v>
+      </c>
+      <c r="AC12">
+        <v>2.4404296900000002</v>
+      </c>
+      <c r="AD12">
+        <v>4.0039060000000001E-2</v>
+      </c>
+      <c r="AE12">
+        <v>1.85742188</v>
+      </c>
+      <c r="AF12">
+        <v>3.35546875</v>
+      </c>
+      <c r="AG12">
+        <v>0.51660156000000002</v>
+      </c>
+      <c r="AH12">
+        <v>1.84179688</v>
+      </c>
+      <c r="AI12">
+        <v>2.83398438</v>
+      </c>
+      <c r="AJ12">
+        <v>0.23339844000000001</v>
+      </c>
+      <c r="AK12">
+        <v>0.45410156000000002</v>
+      </c>
+      <c r="AL12">
+        <v>1.074219E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1328,8 +2227,71 @@
       <c r="Q13">
         <v>0.61079000000000006</v>
       </c>
+      <c r="R13">
+        <v>1.76367188</v>
+      </c>
+      <c r="S13">
+        <v>1.31347656</v>
+      </c>
+      <c r="T13">
+        <v>1.30273438</v>
+      </c>
+      <c r="U13">
+        <v>1.53222656</v>
+      </c>
+      <c r="V13">
+        <v>2.9765625</v>
+      </c>
+      <c r="W13">
+        <v>1.859375</v>
+      </c>
+      <c r="X13">
+        <v>1.94238281</v>
+      </c>
+      <c r="Y13">
+        <v>3.3505859400000002</v>
+      </c>
+      <c r="Z13">
+        <v>0.85839843999999998</v>
+      </c>
+      <c r="AA13">
+        <v>3.49414062</v>
+      </c>
+      <c r="AB13">
+        <v>2.76171875</v>
+      </c>
+      <c r="AC13">
+        <v>2.3974609400000002</v>
+      </c>
+      <c r="AD13">
+        <v>2.6640625</v>
+      </c>
+      <c r="AE13">
+        <v>3.0166015599999998</v>
+      </c>
+      <c r="AF13">
+        <v>3.9052734400000002</v>
+      </c>
+      <c r="AG13">
+        <v>1.69335938</v>
+      </c>
+      <c r="AH13">
+        <v>1.828125</v>
+      </c>
+      <c r="AI13">
+        <v>0.42578125</v>
+      </c>
+      <c r="AJ13">
+        <v>9.8632810000000001E-2</v>
+      </c>
+      <c r="AK13">
+        <v>0.82324218999999998</v>
+      </c>
+      <c r="AL13">
+        <v>1.3671880000000001E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1381,8 +2343,71 @@
       <c r="Q14">
         <v>0.61384545454499995</v>
       </c>
+      <c r="R14" s="1">
+        <v>0.37011718799999999</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.23925781</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2.9033203099999998</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1.47753906</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.60253906199999996</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3.0234375</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.87207031199999996</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>3.7470703099999998</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1.953125E-2</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>3.8203125</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.7734375</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>3.92382812</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>2.171875</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0.939453125</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>2.9443359400000002</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.21484375</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1.9921875</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>1.87109375</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0.580078125</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>9.765625E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1434,8 +2459,71 @@
       <c r="Q15">
         <v>0.61232545454499998</v>
       </c>
+      <c r="R15">
+        <v>2.2919921900000002</v>
+      </c>
+      <c r="S15">
+        <v>3.28320312</v>
+      </c>
+      <c r="T15">
+        <v>3.7978515599999998</v>
+      </c>
+      <c r="U15">
+        <v>2.09765625</v>
+      </c>
+      <c r="V15">
+        <v>1.83789062</v>
+      </c>
+      <c r="W15">
+        <v>3.8701171900000002</v>
+      </c>
+      <c r="X15">
+        <v>0.25</v>
+      </c>
+      <c r="Y15">
+        <v>3.3701171900000002</v>
+      </c>
+      <c r="Z15">
+        <v>1.24609375</v>
+      </c>
+      <c r="AA15">
+        <v>0.484375</v>
+      </c>
+      <c r="AB15">
+        <v>1.11523438</v>
+      </c>
+      <c r="AC15">
+        <v>1.95410156</v>
+      </c>
+      <c r="AD15">
+        <v>3.0009765599999998</v>
+      </c>
+      <c r="AE15">
+        <v>1.71386719</v>
+      </c>
+      <c r="AF15">
+        <v>3.3779296900000002</v>
+      </c>
+      <c r="AG15">
+        <v>3.19726562</v>
+      </c>
+      <c r="AH15">
+        <v>0.4296875</v>
+      </c>
+      <c r="AI15">
+        <v>3.30859375</v>
+      </c>
+      <c r="AJ15">
+        <v>0.30078125</v>
+      </c>
+      <c r="AK15">
+        <v>1.16796875</v>
+      </c>
+      <c r="AL15">
+        <v>1.269531E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1487,8 +2575,71 @@
       <c r="Q16">
         <v>0.60613454545500001</v>
       </c>
+      <c r="R16">
+        <v>3.8388671900000002</v>
+      </c>
+      <c r="S16">
+        <v>2.0576171900000002</v>
+      </c>
+      <c r="T16">
+        <v>3.9931640599999998</v>
+      </c>
+      <c r="U16">
+        <v>0.36425781000000002</v>
+      </c>
+      <c r="V16">
+        <v>3.953125</v>
+      </c>
+      <c r="W16">
+        <v>2.92578125</v>
+      </c>
+      <c r="X16">
+        <v>0.97265625</v>
+      </c>
+      <c r="Y16">
+        <v>3.5078125</v>
+      </c>
+      <c r="Z16">
+        <v>3.80664062</v>
+      </c>
+      <c r="AA16">
+        <v>2.97460938</v>
+      </c>
+      <c r="AB16">
+        <v>3.26367188</v>
+      </c>
+      <c r="AC16">
+        <v>3.9609375</v>
+      </c>
+      <c r="AD16">
+        <v>1.04882812</v>
+      </c>
+      <c r="AE16">
+        <v>1.828125</v>
+      </c>
+      <c r="AF16">
+        <v>3.15625</v>
+      </c>
+      <c r="AG16">
+        <v>3.5224609400000002</v>
+      </c>
+      <c r="AH16">
+        <v>3.02148438</v>
+      </c>
+      <c r="AI16">
+        <v>0.8046875</v>
+      </c>
+      <c r="AJ16">
+        <v>0.19921875</v>
+      </c>
+      <c r="AK16">
+        <v>0.50585937999999997</v>
+      </c>
+      <c r="AL16">
+        <v>1.5625E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1540,8 +2691,71 @@
       <c r="Q17">
         <v>0.61157636363599999</v>
       </c>
+      <c r="R17">
+        <v>0.80078125</v>
+      </c>
+      <c r="S17">
+        <v>0.22851562</v>
+      </c>
+      <c r="T17">
+        <v>3.49023438</v>
+      </c>
+      <c r="U17">
+        <v>2.3662109400000002</v>
+      </c>
+      <c r="V17">
+        <v>0.56445312000000003</v>
+      </c>
+      <c r="W17">
+        <v>3.9658203099999998</v>
+      </c>
+      <c r="X17">
+        <v>1.15722656</v>
+      </c>
+      <c r="Y17">
+        <v>0.82714843999999998</v>
+      </c>
+      <c r="Z17">
+        <v>2.18164062</v>
+      </c>
+      <c r="AA17">
+        <v>0.48925781000000002</v>
+      </c>
+      <c r="AB17">
+        <v>0.74804687999999997</v>
+      </c>
+      <c r="AC17">
+        <v>0.12304688</v>
+      </c>
+      <c r="AD17">
+        <v>3.36132812</v>
+      </c>
+      <c r="AE17">
+        <v>2.1484380000000001E-2</v>
+      </c>
+      <c r="AF17">
+        <v>2.5986328099999998</v>
+      </c>
+      <c r="AG17">
+        <v>1.30859375</v>
+      </c>
+      <c r="AH17">
+        <v>0.32421875</v>
+      </c>
+      <c r="AI17">
+        <v>2.11914062</v>
+      </c>
+      <c r="AJ17">
+        <v>7.7148439999999999E-2</v>
+      </c>
+      <c r="AK17">
+        <v>0.4765625</v>
+      </c>
+      <c r="AL17">
+        <v>1.074219E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:38">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1593,8 +2807,71 @@
       <c r="Q18">
         <v>0.62048090909099995</v>
       </c>
+      <c r="R18">
+        <v>1.54003906</v>
+      </c>
+      <c r="S18">
+        <v>2.4130859400000002</v>
+      </c>
+      <c r="T18">
+        <v>1.94042969</v>
+      </c>
+      <c r="U18">
+        <v>1.34960938</v>
+      </c>
+      <c r="V18">
+        <v>1.10742188</v>
+      </c>
+      <c r="W18">
+        <v>1.92871094</v>
+      </c>
+      <c r="X18">
+        <v>2.4287109400000002</v>
+      </c>
+      <c r="Y18">
+        <v>1.34472656</v>
+      </c>
+      <c r="Z18">
+        <v>2.7119140599999998</v>
+      </c>
+      <c r="AA18">
+        <v>3.1181640599999998</v>
+      </c>
+      <c r="AB18">
+        <v>2.8720703099999998</v>
+      </c>
+      <c r="AC18">
+        <v>3.6806640599999998</v>
+      </c>
+      <c r="AD18">
+        <v>2.84570312</v>
+      </c>
+      <c r="AE18">
+        <v>2.4462890599999998</v>
+      </c>
+      <c r="AF18">
+        <v>3.6494140599999998</v>
+      </c>
+      <c r="AG18">
+        <v>2.9560546900000002</v>
+      </c>
+      <c r="AH18">
+        <v>0.83691406000000002</v>
+      </c>
+      <c r="AI18">
+        <v>2.80078125</v>
+      </c>
+      <c r="AJ18">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AK18">
+        <v>1.828125</v>
+      </c>
+      <c r="AL18">
+        <v>5.85938E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1646,8 +2923,71 @@
       <c r="Q19">
         <v>0.620114545455</v>
       </c>
+      <c r="R19">
+        <v>3.7451171900000002</v>
+      </c>
+      <c r="S19">
+        <v>2.57421875</v>
+      </c>
+      <c r="T19">
+        <v>1.46289062</v>
+      </c>
+      <c r="U19">
+        <v>0.39257811999999997</v>
+      </c>
+      <c r="V19">
+        <v>0.12109375</v>
+      </c>
+      <c r="W19">
+        <v>1.05175781</v>
+      </c>
+      <c r="X19">
+        <v>1.51269531</v>
+      </c>
+      <c r="Y19">
+        <v>1.12597656</v>
+      </c>
+      <c r="Z19">
+        <v>0.1328125</v>
+      </c>
+      <c r="AA19">
+        <v>3.97460938</v>
+      </c>
+      <c r="AB19">
+        <v>1.46289062</v>
+      </c>
+      <c r="AC19">
+        <v>3.2421875</v>
+      </c>
+      <c r="AD19">
+        <v>1.70507812</v>
+      </c>
+      <c r="AE19">
+        <v>2.53710938</v>
+      </c>
+      <c r="AF19">
+        <v>3.78515625</v>
+      </c>
+      <c r="AG19">
+        <v>2.3046875</v>
+      </c>
+      <c r="AH19">
+        <v>3.0068359400000002</v>
+      </c>
+      <c r="AI19">
+        <v>0.86132812000000003</v>
+      </c>
+      <c r="AJ19">
+        <v>4.4921879999999997E-2</v>
+      </c>
+      <c r="AK19">
+        <v>2.0048828099999998</v>
+      </c>
+      <c r="AL19">
+        <v>1.171875E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1699,8 +3039,71 @@
       <c r="Q20">
         <v>0.60994454545499999</v>
       </c>
+      <c r="R20">
+        <v>2.4423828099999998</v>
+      </c>
+      <c r="S20">
+        <v>2.45117188</v>
+      </c>
+      <c r="T20">
+        <v>2.2705078099999998</v>
+      </c>
+      <c r="U20">
+        <v>2.36328125</v>
+      </c>
+      <c r="V20">
+        <v>3.53125</v>
+      </c>
+      <c r="W20">
+        <v>0.51953125</v>
+      </c>
+      <c r="X20">
+        <v>1.41601562</v>
+      </c>
+      <c r="Y20">
+        <v>2.3447265599999998</v>
+      </c>
+      <c r="Z20">
+        <v>1.22558594</v>
+      </c>
+      <c r="AA20">
+        <v>1.08300781</v>
+      </c>
+      <c r="AB20">
+        <v>1.18652344</v>
+      </c>
+      <c r="AC20">
+        <v>1.54785156</v>
+      </c>
+      <c r="AD20">
+        <v>3.125</v>
+      </c>
+      <c r="AE20">
+        <v>1.36230469</v>
+      </c>
+      <c r="AF20">
+        <v>3.3037109400000002</v>
+      </c>
+      <c r="AG20">
+        <v>1.33984375</v>
+      </c>
+      <c r="AH20">
+        <v>2.0029296900000002</v>
+      </c>
+      <c r="AI20">
+        <v>0.77441406000000002</v>
+      </c>
+      <c r="AJ20">
+        <v>0.13671875</v>
+      </c>
+      <c r="AK20">
+        <v>1.01171875</v>
+      </c>
+      <c r="AL20">
+        <v>4.8828099999999996E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:38">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1752,8 +3155,71 @@
       <c r="Q21">
         <v>0.61435636363599999</v>
       </c>
+      <c r="R21">
+        <v>3.8623046900000002</v>
+      </c>
+      <c r="S21">
+        <v>2.78125</v>
+      </c>
+      <c r="T21">
+        <v>1.79296875</v>
+      </c>
+      <c r="U21">
+        <v>0.68945312000000003</v>
+      </c>
+      <c r="V21">
+        <v>3.4775390599999998</v>
+      </c>
+      <c r="W21">
+        <v>1.08789062</v>
+      </c>
+      <c r="X21">
+        <v>1.59960938</v>
+      </c>
+      <c r="Y21">
+        <v>1.5859375</v>
+      </c>
+      <c r="Z21">
+        <v>0.46484375</v>
+      </c>
+      <c r="AA21">
+        <v>3.0791015599999998</v>
+      </c>
+      <c r="AB21">
+        <v>0.40625</v>
+      </c>
+      <c r="AC21">
+        <v>3.22851562</v>
+      </c>
+      <c r="AD21">
+        <v>1.93945312</v>
+      </c>
+      <c r="AE21">
+        <v>0.20117188</v>
+      </c>
+      <c r="AF21">
+        <v>3.2490234400000002</v>
+      </c>
+      <c r="AG21">
+        <v>3.7353515599999998</v>
+      </c>
+      <c r="AH21">
+        <v>0.34863281000000002</v>
+      </c>
+      <c r="AI21">
+        <v>1.16113281</v>
+      </c>
+      <c r="AJ21">
+        <v>0.12988280999999999</v>
+      </c>
+      <c r="AK21">
+        <v>1.08496094</v>
+      </c>
+      <c r="AL21">
+        <v>1.7578119999999999E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:38">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1805,8 +3271,71 @@
       <c r="Q22">
         <v>0.61056454545500005</v>
       </c>
+      <c r="R22">
+        <v>1.96679688</v>
+      </c>
+      <c r="S22">
+        <v>2.3349609400000002</v>
+      </c>
+      <c r="T22">
+        <v>1.2421875</v>
+      </c>
+      <c r="U22">
+        <v>2.09375</v>
+      </c>
+      <c r="V22">
+        <v>3.9013671900000002</v>
+      </c>
+      <c r="W22">
+        <v>0.21582030999999999</v>
+      </c>
+      <c r="X22">
+        <v>2.7998046900000002</v>
+      </c>
+      <c r="Y22">
+        <v>2.22460938</v>
+      </c>
+      <c r="Z22">
+        <v>1.18261719</v>
+      </c>
+      <c r="AA22">
+        <v>2.2939453099999998</v>
+      </c>
+      <c r="AB22">
+        <v>1.98242188</v>
+      </c>
+      <c r="AC22">
+        <v>3.9970703099999998</v>
+      </c>
+      <c r="AD22">
+        <v>3.98828125</v>
+      </c>
+      <c r="AE22">
+        <v>3.88476562</v>
+      </c>
+      <c r="AF22">
+        <v>3.8076171900000002</v>
+      </c>
+      <c r="AG22">
+        <v>2.20898438</v>
+      </c>
+      <c r="AH22">
+        <v>1.23046875</v>
+      </c>
+      <c r="AI22">
+        <v>0.85839843999999998</v>
+      </c>
+      <c r="AJ22">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="AK22">
+        <v>1.16894531</v>
+      </c>
+      <c r="AL22">
+        <v>6.8359400000000004E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:38">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1858,8 +3387,71 @@
       <c r="Q23">
         <v>0.60903272727299995</v>
       </c>
+      <c r="R23">
+        <v>0.7734375</v>
+      </c>
+      <c r="S23">
+        <v>1.18261719</v>
+      </c>
+      <c r="T23">
+        <v>2.7724609400000002</v>
+      </c>
+      <c r="U23">
+        <v>1.59082031</v>
+      </c>
+      <c r="V23">
+        <v>0.45214843999999998</v>
+      </c>
+      <c r="W23">
+        <v>0.265625</v>
+      </c>
+      <c r="X23">
+        <v>1.12304688</v>
+      </c>
+      <c r="Y23">
+        <v>2.5712890599999998</v>
+      </c>
+      <c r="Z23">
+        <v>1.2421875</v>
+      </c>
+      <c r="AA23">
+        <v>1.30566406</v>
+      </c>
+      <c r="AB23">
+        <v>1.23730469</v>
+      </c>
+      <c r="AC23">
+        <v>2.6904296900000002</v>
+      </c>
+      <c r="AD23">
+        <v>2.88085938</v>
+      </c>
+      <c r="AE23">
+        <v>2.0341796900000002</v>
+      </c>
+      <c r="AF23">
+        <v>3.26367188</v>
+      </c>
+      <c r="AG23">
+        <v>2.83789062</v>
+      </c>
+      <c r="AH23">
+        <v>3.6474609400000002</v>
+      </c>
+      <c r="AI23">
+        <v>1.33007812</v>
+      </c>
+      <c r="AJ23">
+        <v>0.12597655999999999</v>
+      </c>
+      <c r="AK23">
+        <v>0.47558593999999998</v>
+      </c>
+      <c r="AL23">
+        <v>8.7890599999999996E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1911,8 +3503,71 @@
       <c r="Q24">
         <v>0.61294000000000004</v>
       </c>
+      <c r="R24">
+        <v>0.49511718999999998</v>
+      </c>
+      <c r="S24">
+        <v>1.5859375</v>
+      </c>
+      <c r="T24">
+        <v>3.1513671900000002</v>
+      </c>
+      <c r="U24">
+        <v>2.33398438</v>
+      </c>
+      <c r="V24">
+        <v>2.09960938</v>
+      </c>
+      <c r="W24">
+        <v>2.90234375</v>
+      </c>
+      <c r="X24">
+        <v>1.71484375</v>
+      </c>
+      <c r="Y24">
+        <v>2.9970703099999998</v>
+      </c>
+      <c r="Z24">
+        <v>0.35546875</v>
+      </c>
+      <c r="AA24">
+        <v>3.60742188</v>
+      </c>
+      <c r="AB24">
+        <v>1.80371094</v>
+      </c>
+      <c r="AC24">
+        <v>1.46679688</v>
+      </c>
+      <c r="AD24">
+        <v>1.96289062</v>
+      </c>
+      <c r="AE24">
+        <v>1.88574219</v>
+      </c>
+      <c r="AF24">
+        <v>3.93359375</v>
+      </c>
+      <c r="AG24">
+        <v>1.27636719</v>
+      </c>
+      <c r="AH24">
+        <v>2.9482421900000002</v>
+      </c>
+      <c r="AI24">
+        <v>1.4609375</v>
+      </c>
+      <c r="AJ24">
+        <v>0.31347656000000002</v>
+      </c>
+      <c r="AK24">
+        <v>1.15234375</v>
+      </c>
+      <c r="AL24">
+        <v>2.0507810000000001E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:38">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1964,8 +3619,71 @@
       <c r="Q25">
         <v>0.612468181818</v>
       </c>
+      <c r="R25">
+        <v>1.74121094</v>
+      </c>
+      <c r="S25">
+        <v>3.515625E-2</v>
+      </c>
+      <c r="T25">
+        <v>0.51855468999999998</v>
+      </c>
+      <c r="U25">
+        <v>1.97558594</v>
+      </c>
+      <c r="V25">
+        <v>8.7890599999999996E-3</v>
+      </c>
+      <c r="W25">
+        <v>0.80957031000000002</v>
+      </c>
+      <c r="X25">
+        <v>2.9130859400000002</v>
+      </c>
+      <c r="Y25">
+        <v>2.8330078099999998</v>
+      </c>
+      <c r="Z25">
+        <v>2.70117188</v>
+      </c>
+      <c r="AA25">
+        <v>1.96582031</v>
+      </c>
+      <c r="AB25">
+        <v>0.37304688000000003</v>
+      </c>
+      <c r="AC25">
+        <v>2.6298828099999998</v>
+      </c>
+      <c r="AD25">
+        <v>3.7978515599999998</v>
+      </c>
+      <c r="AE25">
+        <v>3.8388671900000002</v>
+      </c>
+      <c r="AF25">
+        <v>3.0908203099999998</v>
+      </c>
+      <c r="AG25">
+        <v>1.74707031</v>
+      </c>
+      <c r="AH25">
+        <v>0.80078125</v>
+      </c>
+      <c r="AI25">
+        <v>2.57226562</v>
+      </c>
+      <c r="AJ25">
+        <v>0.10253906</v>
+      </c>
+      <c r="AK25">
+        <v>0.82324218999999998</v>
+      </c>
+      <c r="AL25">
+        <v>3.0273439999999999E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:38">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2017,8 +3735,71 @@
       <c r="Q26">
         <v>0.60973818181799999</v>
       </c>
+      <c r="R26">
+        <v>3.4072265599999998</v>
+      </c>
+      <c r="S26">
+        <v>2.32226562</v>
+      </c>
+      <c r="T26">
+        <v>2.2275390599999998</v>
+      </c>
+      <c r="U26">
+        <v>3.45898438</v>
+      </c>
+      <c r="V26">
+        <v>2.03320312</v>
+      </c>
+      <c r="W26">
+        <v>0.86523437999999997</v>
+      </c>
+      <c r="X26">
+        <v>1.94042969</v>
+      </c>
+      <c r="Y26">
+        <v>3.6396484400000002</v>
+      </c>
+      <c r="Z26">
+        <v>2.0771484400000002</v>
+      </c>
+      <c r="AA26">
+        <v>0.66894531000000002</v>
+      </c>
+      <c r="AB26">
+        <v>1.328125</v>
+      </c>
+      <c r="AC26">
+        <v>1.03222656</v>
+      </c>
+      <c r="AD26">
+        <v>2.2607421900000002</v>
+      </c>
+      <c r="AE26">
+        <v>4.3945310000000001E-2</v>
+      </c>
+      <c r="AF26">
+        <v>3.453125</v>
+      </c>
+      <c r="AG26">
+        <v>1.56054688</v>
+      </c>
+      <c r="AH26">
+        <v>2.98046875</v>
+      </c>
+      <c r="AI26">
+        <v>0.33496093999999998</v>
+      </c>
+      <c r="AJ26">
+        <v>0.20019530999999999</v>
+      </c>
+      <c r="AK26">
+        <v>0.60351562000000003</v>
+      </c>
+      <c r="AL26">
+        <v>3.90625E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:38">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2070,8 +3851,71 @@
       <c r="Q27">
         <v>0.611844545455</v>
       </c>
+      <c r="R27">
+        <v>3.98828125</v>
+      </c>
+      <c r="S27">
+        <v>2.3759765599999998</v>
+      </c>
+      <c r="T27">
+        <v>0.83984375</v>
+      </c>
+      <c r="U27">
+        <v>0.98828125</v>
+      </c>
+      <c r="V27">
+        <v>1.8984375</v>
+      </c>
+      <c r="W27">
+        <v>1.30957031</v>
+      </c>
+      <c r="X27">
+        <v>3.5234375</v>
+      </c>
+      <c r="Y27">
+        <v>1.23339844</v>
+      </c>
+      <c r="Z27">
+        <v>1.87207031</v>
+      </c>
+      <c r="AA27">
+        <v>2.6728515599999998</v>
+      </c>
+      <c r="AB27">
+        <v>1.56933594</v>
+      </c>
+      <c r="AC27">
+        <v>1.58398438</v>
+      </c>
+      <c r="AD27">
+        <v>2.15625</v>
+      </c>
+      <c r="AE27">
+        <v>0.93066406000000002</v>
+      </c>
+      <c r="AF27">
+        <v>3.2490234400000002</v>
+      </c>
+      <c r="AG27">
+        <v>3.6298828099999998</v>
+      </c>
+      <c r="AH27">
+        <v>2.90820312</v>
+      </c>
+      <c r="AI27">
+        <v>1.03613281</v>
+      </c>
+      <c r="AJ27">
+        <v>0.10742188</v>
+      </c>
+      <c r="AK27">
+        <v>0.62792968999999998</v>
+      </c>
+      <c r="AL27">
+        <v>1.6601560000000001E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:38">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2123,8 +3967,71 @@
       <c r="Q28">
         <v>0.613894545455</v>
       </c>
+      <c r="R28">
+        <v>1.34277344</v>
+      </c>
+      <c r="S28">
+        <v>1.00878906</v>
+      </c>
+      <c r="T28">
+        <v>1.14941406</v>
+      </c>
+      <c r="U28">
+        <v>1.30273438</v>
+      </c>
+      <c r="V28">
+        <v>2.2763671900000002</v>
+      </c>
+      <c r="W28">
+        <v>3.9443359400000002</v>
+      </c>
+      <c r="X28">
+        <v>2.0673828099999998</v>
+      </c>
+      <c r="Y28">
+        <v>3.65234375</v>
+      </c>
+      <c r="Z28">
+        <v>1.83984375</v>
+      </c>
+      <c r="AA28">
+        <v>2.65820312</v>
+      </c>
+      <c r="AB28">
+        <v>3.5986328099999998</v>
+      </c>
+      <c r="AC28">
+        <v>1.41796875</v>
+      </c>
+      <c r="AD28">
+        <v>0.58789062000000003</v>
+      </c>
+      <c r="AE28">
+        <v>1.66015625</v>
+      </c>
+      <c r="AF28">
+        <v>3.84570312</v>
+      </c>
+      <c r="AG28">
+        <v>3.41992188</v>
+      </c>
+      <c r="AH28">
+        <v>1.50195312</v>
+      </c>
+      <c r="AI28">
+        <v>2.26367188</v>
+      </c>
+      <c r="AJ28">
+        <v>0.17285155999999999</v>
+      </c>
+      <c r="AK28">
+        <v>1.25292969</v>
+      </c>
+      <c r="AL28">
+        <v>1.171875E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:38">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2188,8 +4095,92 @@
         <f t="shared" si="0"/>
         <v>0.61260175084177793</v>
       </c>
+      <c r="R30">
+        <f t="shared" ref="R30:AL30" si="1">AVERAGE(R2:R28)</f>
+        <v>2.0891203708518518</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>1.8040364577777779</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>2.0289713540740739</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>1.7545211226666666</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>2.1665943289629634</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>1.7550274885185184</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>1.9281322337777778</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>2.2164351855555555</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="1"/>
+        <v>1.6178385425925925</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="1"/>
+        <v>2.3377459488888879</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>1.7501085078518519</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="1"/>
+        <v>2.2915581595555552</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="1"/>
+        <v>2.2705439800000002</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="1"/>
+        <v>1.8440393525925927</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="1"/>
+        <v>3.3292100696296298</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="1"/>
+        <v>2.1631221062962962</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="1"/>
+        <v>1.8693214700000003</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="1"/>
+        <v>1.5947988996296298</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="1"/>
+        <v>0.12210648138888883</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="1"/>
+        <v>0.92947048603703675</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="1"/>
+        <v>1.3382522592592592E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:38">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -2198,63 +4189,147 @@
         <v>0.23222372941566488</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:Q31" si="1">STDEV(D2:D28)</f>
+        <f t="shared" ref="D31:Q31" si="2">STDEV(D2:D28)</f>
         <v>3.6692358593571222E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5422800240197043E-3</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1570946796126673E-2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7427819157767341E-3</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5290698914165011E-3</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20535559405810525</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5833032589828755E-3</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6019210188092746E-3</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9682053626563998E-2</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4615999348607202E-3</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.113254342834001E-3</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65256816078852919</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.563238739079184E-3</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0513715707955942E-3</v>
       </c>
+      <c r="R31">
+        <f t="shared" ref="R31:AL31" si="3">STDEV(R2:R28)</f>
+        <v>1.197580482047802</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0.98517789290605939</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>1.1421880102292761</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>1.0529477001444223</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>1.2866468087953462</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="3"/>
+        <v>1.2937673001599246</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
+        <v>0.95493625722333952</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>1.1849377482817276</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>1.0851775541057136</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="3"/>
+        <v>1.2482442618041654</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>1.0067429374934189</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="3"/>
+        <v>1.157612410087751</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="3"/>
+        <v>1.089736129446381</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="3"/>
+        <v>1.1421628920854952</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="3"/>
+        <v>0.45257221638001738</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="3"/>
+        <v>1.1367866882048503</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="3"/>
+        <v>1.2152947218725925</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="3"/>
+        <v>0.96162039803348431</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="3"/>
+        <v>9.5343513349424633E-2</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="3"/>
+        <v>0.40362979942683097</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="3"/>
+        <v>7.5973936145690753E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:38">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -2263,63 +4338,147 @@
         <v>-2.7544086800000001</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:Q32" si="2">MAX(D2:D28)</f>
+        <f t="shared" ref="D32:Q32" si="4">MAX(D2:D28)</f>
         <v>-0.57563598678799999</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.67596532258099995</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.96389776000000005</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.870174314783</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77468499999999996</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.13919864</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.45036756554899998</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52353103448299998</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.9291855200000001</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.48880740304999998</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58038392857099996</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.9849124199999997</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53081965852699997</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62048090909099995</v>
       </c>
+      <c r="R32">
+        <f t="shared" ref="R32:AL32" si="5">MAX(R2:R28)</f>
+        <v>3.98828125</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>3.6279296900000002</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>3.9931640599999998</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>3.9638671900000002</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="5"/>
+        <v>3.953125</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>3.9658203099999998</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>3.8583984400000002</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="5"/>
+        <v>3.7685546900000002</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>3.80664062</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="5"/>
+        <v>3.97460938</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="5"/>
+        <v>3.5986328099999998</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="5"/>
+        <v>3.9970703099999998</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="5"/>
+        <v>3.98828125</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="5"/>
+        <v>3.88476562</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="5"/>
+        <v>3.93359375</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="5"/>
+        <v>3.7802734400000002</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="5"/>
+        <v>3.8125</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="5"/>
+        <v>3.3232421900000002</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="5"/>
+        <v>0.36230468999999998</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="5"/>
+        <v>2.0048828099999998</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="5"/>
+        <v>3.90625E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:38">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -2328,60 +4487,265 @@
         <v>-3.7253867199999999</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:Q33" si="3">MIN(D2:D28)</f>
+        <f t="shared" ref="D33:Q33" si="6">MIN(D2:D28)</f>
         <v>-0.59119806456000001</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.66872016129</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.1760948</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.88782419743999996</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.75976500000000002</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.0398566499999999</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.46806260277400003</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.50643620689699997</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.2396192500000001</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.51228879320800003</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.563932142857</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7.5137843200000001</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.50776064914399999</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.60613454545500001</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33:AL33" si="7">MIN(R2:R28)</f>
+        <v>0.126953125</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="7"/>
+        <v>0.21875</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>0.36425781000000002</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="7"/>
+        <v>8.7890599999999996E-3</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="7"/>
+        <v>0.19042969000000001</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="7"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="7"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="7"/>
+        <v>0.22460938</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="7"/>
+        <v>0.12695312</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="7"/>
+        <v>0.12304688</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="7"/>
+        <v>4.0039060000000001E-2</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="7"/>
+        <v>2.1484380000000001E-2</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="7"/>
+        <v>2.4111328099999998</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="7"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="7"/>
+        <v>0.32421875</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="7"/>
+        <v>0.33496093999999998</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="7"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="7"/>
+        <v>0.45410156000000002</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="7"/>
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>-2.7544086800000001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>-0.58378845111900002</v>
+      </c>
+      <c r="E36">
+        <v>0.67573145161299997</v>
+      </c>
+      <c r="F36">
+        <v>-0.96389776000000005</v>
+      </c>
+      <c r="G36">
+        <v>-0.870174314783</v>
+      </c>
+      <c r="H36">
+        <v>0.77144999999999997</v>
+      </c>
+      <c r="I36">
+        <v>-3.13919864</v>
+      </c>
+      <c r="J36">
+        <v>-0.46806260277400003</v>
+      </c>
+      <c r="K36">
+        <v>0.51643793103400004</v>
+      </c>
+      <c r="L36">
+        <v>-1.9296259</v>
+      </c>
+      <c r="M36">
+        <v>-0.49734620489199999</v>
+      </c>
+      <c r="N36">
+        <v>0.56484821428599996</v>
+      </c>
+      <c r="O36">
+        <v>-4.9849124199999997</v>
+      </c>
+      <c r="P36">
+        <v>0.52145367683599997</v>
+      </c>
+      <c r="Q36">
+        <v>0.60973818181799999</v>
+      </c>
+      <c r="R36">
+        <v>3.4072265599999998</v>
+      </c>
+      <c r="S36">
+        <v>2.32226562</v>
+      </c>
+      <c r="T36">
+        <v>2.2275390599999998</v>
+      </c>
+      <c r="U36">
+        <v>3.45898438</v>
+      </c>
+      <c r="V36">
+        <v>2.03320312</v>
+      </c>
+      <c r="W36">
+        <v>0.86523437999999997</v>
+      </c>
+      <c r="X36">
+        <v>1.94042969</v>
+      </c>
+      <c r="Y36">
+        <v>3.6396484400000002</v>
+      </c>
+      <c r="Z36">
+        <v>2.0771484400000002</v>
+      </c>
+      <c r="AA36">
+        <v>0.66894531000000002</v>
+      </c>
+      <c r="AB36">
+        <v>1.328125</v>
+      </c>
+      <c r="AC36">
+        <v>1.03222656</v>
+      </c>
+      <c r="AD36">
+        <v>2.2607421900000002</v>
+      </c>
+      <c r="AE36">
+        <v>4.3945310000000001E-2</v>
+      </c>
+      <c r="AF36">
+        <v>3.453125</v>
+      </c>
+      <c r="AG36">
+        <v>1.56054688</v>
+      </c>
+      <c r="AH36">
+        <v>2.98046875</v>
+      </c>
+      <c r="AI36">
+        <v>0.33496093999999998</v>
+      </c>
+      <c r="AJ36">
+        <v>0.20019530999999999</v>
+      </c>
+      <c r="AK36">
+        <v>0.60351562000000003</v>
+      </c>
+      <c r="AL36">
+        <v>3.90625E-2</v>
       </c>
     </row>
   </sheetData>
